--- a/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -678,14 +678,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -701,32 +701,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="O4" t="n">
-        <v>58.57</v>
+        <v>58.96</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,32 +769,32 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5" t="n">
-        <v>58.5</v>
+        <v>58.57</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.43</v>
+        <v>0.08</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -806,11 +806,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -818,14 +814,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -841,32 +837,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>57.73</v>
+        <v>58.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.53</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -913,32 +909,32 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>57.15</v>
+        <v>57.73</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.39</v>
+        <v>0.53</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,7 +965,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -985,32 +981,32 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="O8" t="n">
-        <v>56.49</v>
+        <v>57.15</v>
       </c>
       <c r="P8" t="n">
         <v>0.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.91</v>
+        <v>2.39</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1057,7 +1053,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -1066,17 +1062,233 @@
         <v>1.17</v>
       </c>
       <c r="O9" t="n">
+        <v>56.49</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O10" t="n">
         <v>55.86</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>1.65</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O11" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O12" t="n">
+        <v>53.79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -701,32 +701,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="O4" t="n">
-        <v>58.96</v>
+        <v>59.32</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.41</v>
+        <v>1.09</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_17_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -769,32 +769,32 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="O5" t="n">
-        <v>58.57</v>
+        <v>58.96</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -837,32 +837,32 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6" t="n">
-        <v>58.5</v>
+        <v>58.57</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>0.08</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -874,11 +874,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -886,14 +882,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -909,32 +905,32 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>57.73</v>
+        <v>58.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.53</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,32 +977,32 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>57.15</v>
+        <v>57.73</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.39</v>
+        <v>0.53</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1037,7 +1033,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1053,32 +1049,32 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="O9" t="n">
-        <v>56.49</v>
+        <v>57.15</v>
       </c>
       <c r="P9" t="n">
         <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.91</v>
+        <v>2.39</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1125,7 +1121,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -1134,23 +1130,23 @@
         <v>1.17</v>
       </c>
       <c r="O10" t="n">
-        <v>55.86</v>
+        <v>56.49</v>
       </c>
       <c r="P10" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>0.91</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1181,7 +1177,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1197,32 +1193,32 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="O11" t="n">
-        <v>55.12</v>
+        <v>55.86</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.41</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1269,24 +1265,96 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O12" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.31</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>53.79</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>1.87</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>

--- a/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
@@ -658,7 +658,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -701,32 +701,32 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="O4" t="n">
-        <v>59.32</v>
+        <v>58.96</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.09</v>
+        <v>0.41</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_17_57', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,26 +769,26 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="O5" t="n">
-        <v>58.96</v>
+        <v>58.94</v>
       </c>
       <c r="P5" t="n">
         <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_31_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l03><NCEK>59.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>config2str</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>walk_hop</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -542,7 +547,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -577,16 +582,17 @@
         <v>59.43</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_30_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -610,7 +616,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -645,20 +651,21 @@
         <v>59.32</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_30_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_30_55', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -701,32 +708,33 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="O4" t="n">
-        <v>58.96</v>
+        <v>59.3</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_10_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_51_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -746,7 +754,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -768,28 +776,29 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>8192</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.99</v>
+        <v>1.09</v>
       </c>
       <c r="O5" t="n">
-        <v>58.94</v>
+        <v>58.69</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.47</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_31_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_50_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -814,7 +823,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -852,13 +861,14 @@
         <v>0.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_10_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -882,7 +892,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -917,16 +927,17 @@
         <v>58.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_32_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -999,6 +1010,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_57_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1071,6 +1083,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_52_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1143,6 +1156,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_14_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1215,6 +1229,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1287,6 +1302,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_36_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1359,6 +1375,7 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_30_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
